--- a/DataTables/Datas/panel.xlsx
+++ b/DataTables/Datas/panel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="17655"/>
+    <workbookView windowWidth="27000" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>UIRootMain</t>
+  </si>
+  <si>
+    <t>UITipsBase</t>
   </si>
 </sst>
 </file>
@@ -1082,13 +1085,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B7" sqref="B7:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -1324,6 +1327,44 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>

--- a/DataTables/Datas/panel.xlsx
+++ b/DataTables/Datas/panel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27000" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>UITipsBase</t>
+  </si>
+  <si>
+    <t>UIHeadbarPanel</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:P7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -1277,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1315,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1350,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1365,6 +1368,44 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
     </row>

--- a/DataTables/Datas/panel.xlsx
+++ b/DataTables/Datas/panel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>UIHeadbarPanel</t>
+  </si>
+  <si>
+    <t>UIBattlePanel</t>
+  </si>
+  <si>
+    <t>UIRootBattle</t>
   </si>
 </sst>
 </file>
@@ -1088,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -1406,6 +1412,47 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
